--- a/r/_data/dates-simple.xlsx
+++ b/r/_data/dates-simple.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncanrager/Desktop/GitHub/code-book/r/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6959FF-1E92-1A44-A8C9-57F03F60C019}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A978A2-3F97-6342-9E7A-5674458B15ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -892,14 +892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
